--- a/venv/data.xlsx
+++ b/venv/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,8 +424,751 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>A1</t>
-        </is>
+          <t>21시3분32초</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>21시3분35초</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>21시3분36초</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21시3분37초</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>21시3분38초</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>21시3분39초</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21시3분40초</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21시3분41초</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>21시3분42초</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>21시3분43초</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>21시3분44초</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>21시3분46초</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>21시3분47초</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>21시3분48초</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>21시3분49초</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21시3분50초</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>21시3분51초</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>21시3분52초</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>21시3분53초</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>21시3분54초</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>21시3분55초</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21시3분56초</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21시3분57초</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>21시3분58초</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>21시3분59초</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>21시4분1초</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>21시4분2초</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>21시4분3초</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>21시4분4초</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>21시4분5초</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>21시4분6초</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>21시4분7초</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>21시4분8초</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>21시4분9초</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>21시4분10초</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>21시4분11초</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>21시4분12초</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>21시4분13초</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>21시4분14초</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>21시4분16초</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>21시4분17초</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>21시4분18초</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>21시4분19초</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>21시4분20초</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>21시4분22초</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>21시4분23초</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>21시4분24초</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>21시4분27초</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>21시4분28초</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>21시4분29초</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>21시4분30초</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>21시4분31초</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>21시4분32초</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>21시4분33초</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>21시4분34초</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>21시4분35초</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>21시4분36초</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>21시4분38초</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>21시4분39초</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>21시4분40초</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>21시4분41초</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>21시4분42초</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>21시4분43초</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>21시4분44초</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>21시4분45초</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>21시4분47초</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>21시4분48초</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>21시4분49초</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>21시4분50초</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>21시4분51초</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>21시4분52초</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>21시4분53초</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>21시4분54초</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>21시4분55초</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>21시4분57초</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>769</v>
       </c>
     </row>
   </sheetData>
